--- a/evaluation/GSM8k/evaluation-MR-gen-100@3.xlsx
+++ b/evaluation/GSM8k/evaluation-MR-gen-100@3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>ASSISTANT: length</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>REPORT: ServiceUnavailableError</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -497,27 +492,24 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3163265306122449</v>
+        <v>0.91</v>
       </c>
       <c r="D2" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -533,7 +525,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="D3" t="n">
         <v>99</v>
@@ -545,15 +537,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -569,13 +558,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5257731958762887</v>
+        <v>0.93</v>
       </c>
       <c r="D4" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -587,9 +576,6 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -601,38 +587,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>json</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4367816091954023</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Meta-Llama-3.1-70B-Instruct-Turbo</t>
+          <t>Meta-Llama-3.1-8B-Instruct-Turbo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -641,70 +624,64 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4025974025974026</v>
+        <v>0.82</v>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
-      </c>
-      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Meta-Llama-3.1-8B-Instruct-Turbo</t>
+          <t>Mistral-7B-Instruct-v0.1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>json</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1460674157303371</v>
+        <v>0.375</v>
       </c>
       <c r="D7" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Meta-Llama-3.1-8B-Instruct-Turbo</t>
+          <t>Mistral-7B-Instruct-v0.2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -713,34 +690,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>45</v>
-      </c>
-      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mistral-7B-Instruct-v0.2</t>
+          <t>Mistral-7B-Instruct-v0.3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -749,28 +723,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.09302325581395349</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="D9" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -785,13 +756,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2765957446808511</v>
+        <v>0.88</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -803,9 +774,6 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -817,67 +785,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>json</t>
+          <t>text</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1847826086956522</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D11" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mixtral-8x7B-Instruct-v0.1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.144578313253012</v>
-      </c>
-      <c r="D12" t="n">
-        <v>83</v>
-      </c>
-      <c r="E12" t="n">
-        <v>17</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
